--- a/public/template/tpl4.xlsx
+++ b/public/template/tpl4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0A584A-55EA-4282-8398-428BDD1FE7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510322DB-0C52-4597-BA42-DE142F156577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,7 +463,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,14 +480,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -499,13 +493,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -513,13 +504,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>96</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
